--- a/research/clean_data.xlsx
+++ b/research/clean_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV16"/>
+  <dimension ref="A1:AU23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>transfers</t>
+          <t>token_age_s</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -511,165 +511,160 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>is_mutable_metadata</t>
+          <t>is_telegram</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>is_telegram</t>
+          <t>is_twitter</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>is_twitter</t>
+          <t>is_website</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>is_website</t>
+          <t>boosts</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>boosts</t>
+          <t>telegram_members</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>telegram_members</t>
+          <t>twitter_days</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>twitter_days</t>
+          <t>twitter_tweets</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>twitter_tweets</t>
+          <t>twitter_followers</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>twitter_followers</t>
+          <t>twitter_smart_followers</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>twitter_smart_followers</t>
+          <t>closing_date</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>closing_date</t>
+          <t>sns_held_all</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>sns_held_all</t>
+          <t>sns_sold_some</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>sns_sold_some</t>
+          <t>sns_sold_all</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>sns_sold_all</t>
+          <t>PNL</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>PNL</t>
+          <t>PNL_10</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>PNL_10</t>
+          <t>PNL_20</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>PNL_20</t>
+          <t>PNL_30</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>PNL_30</t>
+          <t>PNL_40</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>PNL_40</t>
+          <t>PNL_50</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>PNL_50</t>
+          <t>PNL_loss_5</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
+          <t>PNL_loss_10</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
           <t>price_change_check</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>sns_most_common</t>
-        </is>
-      </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>sns_most_common_except_0</t>
+          <t>tt_f10_bought</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>tt_f10_bought</t>
+          <t>tt_f10_sold</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>tt_f10_sold</t>
+          <t>sns_f10_bought</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>sns_f10_bought</t>
+          <t>sns_f10_sold</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>sns_f10_sold</t>
+          <t>sns_no_bought</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>sns_no_bought</t>
+          <t>sns_no_sold</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>sns_no_sold</t>
+          <t>tt_no_bought</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>tt_no_bought</t>
+          <t>tt_no_sold</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>tt_no_sold</t>
+          <t>sns_pnl_loss</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>sns_pnl_loss</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>tt_pnl_loss</t>
         </is>
@@ -677,67 +672,67 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0002015</v>
+        <v>9.849e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>22.83</v>
+        <v>22.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2609</v>
+        <v>53.02</v>
       </c>
       <c r="D2" t="n">
-        <v>792</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>1624</v>
+        <v>202</v>
       </c>
       <c r="G2" t="n">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="H2" t="n">
-        <v>27662.67</v>
+        <v>9754.959999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>226327.52</v>
+        <v>60734.09</v>
       </c>
       <c r="J2" t="n">
-        <v>11.39</v>
+        <v>1.46</v>
       </c>
       <c r="K2" t="n">
-        <v>94.29000000000001</v>
+        <v>-30.81</v>
       </c>
       <c r="L2" t="n">
-        <v>94.29000000000001</v>
+        <v>-30.81</v>
       </c>
       <c r="M2" t="n">
-        <v>94.29000000000001</v>
+        <v>-30.81</v>
       </c>
       <c r="N2" t="n">
-        <v>53955.88</v>
+        <v>40779.55</v>
       </c>
       <c r="O2" t="n">
-        <v>201538</v>
+        <v>98423</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="T2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -748,31 +743,31 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-01-06 08:40:54</t>
-        </is>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2025-01-20 20:31:30</t>
+        </is>
+      </c>
+      <c r="Z2" t="n">
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="n">
-        <v>40</v>
+        <v>-20.48</v>
       </c>
       <c r="AD2" t="n">
-        <v>-21.14</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -781,96 +776,93 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13.77752682100508</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1</v>
+        <v>18212.48999999998</v>
       </c>
       <c r="AM2" t="n">
-        <v>11671.2</v>
+        <v>25886.83999999998</v>
       </c>
       <c r="AN2" t="n">
-        <v>16726.8</v>
+        <v>16762.04000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>32417.94</v>
+        <v>18811.54</v>
       </c>
       <c r="AP2" t="n">
-        <v>32610.14</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="AR2" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="AS2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AU2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0001079</v>
+        <v>0.0003331</v>
       </c>
       <c r="B3" t="n">
-        <v>24.54</v>
+        <v>13.95</v>
       </c>
       <c r="C3" t="n">
-        <v>2700</v>
+        <v>22.74</v>
       </c>
       <c r="D3" t="n">
-        <v>724</v>
+        <v>5339</v>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="F3" t="n">
-        <v>2676</v>
+        <v>6587</v>
       </c>
       <c r="G3" t="n">
-        <v>686</v>
+        <v>523</v>
       </c>
       <c r="H3" t="n">
-        <v>77940.17999999999</v>
+        <v>95690.77</v>
       </c>
       <c r="I3" t="n">
-        <v>241924.32</v>
+        <v>248411.04</v>
       </c>
       <c r="J3" t="n">
-        <v>16.52</v>
+        <v>34.81</v>
       </c>
       <c r="K3" t="n">
-        <v>7969</v>
+        <v>250</v>
       </c>
       <c r="L3" t="n">
-        <v>7969</v>
+        <v>250</v>
       </c>
       <c r="M3" t="n">
-        <v>7969</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>22081.16</v>
+        <v>76872.42999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>107921</v>
+        <v>333163</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -879,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -896,25 +888,25 @@
       <c r="X3" t="n">
         <v>0</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2025-01-06 03:19:36</t>
-        </is>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-01-19 20:24:37</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>20</v>
+        <v>71.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>64.31999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -929,96 +921,93 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24.19825072886298</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>73.48958333333334</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1</v>
+        <v>31624</v>
       </c>
       <c r="AM3" t="n">
-        <v>99400.33000000005</v>
+        <v>72290</v>
       </c>
       <c r="AN3" t="n">
-        <v>100233.9</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>4984.500000000007</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>711.0500000000003</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0002589</v>
+        <v>0.0002646</v>
       </c>
       <c r="B4" t="n">
-        <v>13.78</v>
+        <v>15.83</v>
       </c>
       <c r="C4" t="n">
-        <v>3262</v>
+        <v>18.59</v>
       </c>
       <c r="D4" t="n">
-        <v>4236</v>
+        <v>848</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="F4" t="n">
-        <v>4360</v>
+        <v>2789</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>704</v>
       </c>
       <c r="H4" t="n">
-        <v>27427.34</v>
+        <v>178919.81</v>
       </c>
       <c r="I4" t="n">
-        <v>51093.69</v>
+        <v>378508.81</v>
       </c>
       <c r="J4" t="n">
-        <v>10.01</v>
+        <v>10.04</v>
       </c>
       <c r="K4" t="n">
-        <v>27447</v>
+        <v>167</v>
       </c>
       <c r="L4" t="n">
-        <v>27447</v>
+        <v>167</v>
       </c>
       <c r="M4" t="n">
-        <v>27447</v>
+        <v>167</v>
       </c>
       <c r="N4" t="n">
-        <v>29621.96</v>
+        <v>67478.50999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>258906</v>
+        <v>264669</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -1027,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T4" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>2427</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1042,27 +1031,27 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2025-01-05 07:03:33</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2025-01-18 21:44:44</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>37</v>
       </c>
       <c r="AA4" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="n">
-        <v>20</v>
+        <v>98.94</v>
       </c>
       <c r="AD4" t="n">
-        <v>68.95</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>1</v>
@@ -1077,111 +1066,108 @@
         <v>1</v>
       </c>
       <c r="AI4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-3.539493293591659</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.1</v>
+        <v>-5.869797225186773</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1</v>
+        <v>19732</v>
       </c>
       <c r="AM4" t="n">
-        <v>9283.17</v>
+        <v>32751</v>
       </c>
       <c r="AN4" t="n">
-        <v>15378.46</v>
+        <v>4621.730000000001</v>
       </c>
       <c r="AO4" t="n">
-        <v>18971.35</v>
+        <v>8466.710000000001</v>
       </c>
       <c r="AP4" t="n">
-        <v>8815.209999999999</v>
+        <v>31</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="AR4" t="n">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="AS4" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0003233</v>
+        <v>3.883e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>19.15</v>
+        <v>18.71</v>
       </c>
       <c r="C5" t="n">
-        <v>422</v>
+        <v>31.06</v>
       </c>
       <c r="D5" t="n">
-        <v>4672</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>7743</v>
+        <v>164</v>
       </c>
       <c r="G5" t="n">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="H5" t="n">
-        <v>66208.12</v>
+        <v>4229.64</v>
       </c>
       <c r="I5" t="n">
-        <v>103987.22</v>
+        <v>36141.33</v>
       </c>
       <c r="J5" t="n">
-        <v>20.19</v>
+        <v>41.07</v>
       </c>
       <c r="K5" t="n">
-        <v>34393</v>
+        <v>1736</v>
       </c>
       <c r="L5" t="n">
-        <v>34393</v>
+        <v>1736</v>
       </c>
       <c r="M5" t="n">
-        <v>34393</v>
+        <v>1736</v>
       </c>
       <c r="N5" t="n">
-        <v>33168.31</v>
+        <v>13068.78</v>
       </c>
       <c r="O5" t="n">
-        <v>323364</v>
+        <v>38837</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2189</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1192,25 +1178,25 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>2025-01-05 02:22:28</t>
-        </is>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-01-18 14:03:03</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>26</v>
+        <v>62.92</v>
       </c>
       <c r="AD5" t="n">
-        <v>62.3</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1225,96 +1211,93 @@
         <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.91839762611276</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1</v>
+        <v>107.2038420490928</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1</v>
+        <v>10537.32</v>
       </c>
       <c r="AM5" t="n">
-        <v>16460.66</v>
+        <v>12872.51</v>
       </c>
       <c r="AN5" t="n">
-        <v>40332.54000000001</v>
+        <v>18368.69</v>
       </c>
       <c r="AO5" t="n">
-        <v>24104.4</v>
+        <v>15128.51</v>
       </c>
       <c r="AP5" t="n">
-        <v>17094.10000000001</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="AR5" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AT5" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.318e-05</v>
+        <v>0.0001118</v>
       </c>
       <c r="B6" t="n">
-        <v>15.9</v>
+        <v>53.83</v>
       </c>
       <c r="C6" t="n">
-        <v>380</v>
+        <v>101.06</v>
       </c>
       <c r="D6" t="n">
-        <v>605</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>732</v>
+        <v>182</v>
       </c>
       <c r="G6" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="H6" t="n">
-        <v>61144.61</v>
+        <v>6361.35</v>
       </c>
       <c r="I6" t="n">
-        <v>90004.53999999999</v>
+        <v>33287.82</v>
       </c>
       <c r="J6" t="n">
-        <v>52.92</v>
+        <v>24.8</v>
       </c>
       <c r="K6" t="n">
-        <v>84.53</v>
+        <v>323</v>
       </c>
       <c r="L6" t="n">
-        <v>84.53</v>
+        <v>323</v>
       </c>
       <c r="M6" t="n">
-        <v>84.53</v>
+        <v>323</v>
       </c>
       <c r="N6" t="n">
-        <v>470254.08</v>
+        <v>48334.14</v>
       </c>
       <c r="O6" t="n">
-        <v>332407</v>
+        <v>111844</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -1323,13 +1306,13 @@
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
-        <v>3000</v>
+        <v>133</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1340,129 +1323,126 @@
       <c r="X6" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>2025-01-04 14:52:46</t>
-        </is>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-01-18 12:12:04</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>-21.34</v>
       </c>
       <c r="AD6" t="n">
-        <v>60.21</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>1</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27.28578267113451</v>
+        <v>1</v>
       </c>
       <c r="AK6" t="n">
-        <v>43</v>
+        <v>18.39457799428147</v>
       </c>
       <c r="AL6" t="n">
-        <v>43</v>
+        <v>8318.669999999998</v>
       </c>
       <c r="AM6" t="n">
-        <v>9766.02999999999</v>
+        <v>8783.830000000002</v>
       </c>
       <c r="AN6" t="n">
-        <v>11458.25</v>
+        <v>16816.64</v>
       </c>
       <c r="AO6" t="n">
-        <v>24674.51</v>
+        <v>9566.83</v>
       </c>
       <c r="AP6" t="n">
-        <v>6002.660000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="AT6" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0002635</v>
+        <v>0.0001184</v>
       </c>
       <c r="B7" t="n">
-        <v>14.65</v>
+        <v>16.99</v>
       </c>
       <c r="C7" t="n">
-        <v>1940</v>
+        <v>71.36</v>
       </c>
       <c r="D7" t="n">
-        <v>3513</v>
+        <v>1036</v>
       </c>
       <c r="E7" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
-        <v>3658</v>
+        <v>1781</v>
       </c>
       <c r="G7" t="n">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="H7" t="n">
-        <v>42610.25</v>
+        <v>6306.92</v>
       </c>
       <c r="I7" t="n">
-        <v>70026.47</v>
+        <v>51189.57</v>
       </c>
       <c r="J7" t="n">
-        <v>12.67</v>
+        <v>6.69</v>
       </c>
       <c r="K7" t="n">
-        <v>28012</v>
+        <v>22.9</v>
       </c>
       <c r="L7" t="n">
-        <v>28012</v>
+        <v>22.9</v>
       </c>
       <c r="M7" t="n">
-        <v>28012</v>
+        <v>22.9</v>
       </c>
       <c r="N7" t="n">
-        <v>29845.39</v>
+        <v>39614.03</v>
       </c>
       <c r="O7" t="n">
-        <v>263580</v>
+        <v>118470</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -1471,13 +1451,13 @@
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="U7" t="n">
-        <v>2079</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1488,25 +1468,25 @@
       <c r="X7" t="n">
         <v>0</v>
       </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2025-01-04 01:21:46</t>
-        </is>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025-01-16 14:30:57</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="AC7" t="n">
-        <v>27</v>
+        <v>65.37</v>
       </c>
       <c r="AD7" t="n">
-        <v>67.17</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>1</v>
@@ -1521,111 +1501,108 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23.18840579710146</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.1</v>
+        <v>2.688638334778844</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1</v>
+        <v>12079.54</v>
       </c>
       <c r="AM7" t="n">
-        <v>4489.850000000001</v>
+        <v>21442.69999999999</v>
       </c>
       <c r="AN7" t="n">
-        <v>25478.84</v>
+        <v>16265.81</v>
       </c>
       <c r="AO7" t="n">
-        <v>20411.05000000001</v>
+        <v>16882.55</v>
       </c>
       <c r="AP7" t="n">
-        <v>9139.07</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0002661</v>
+        <v>0.0009649</v>
       </c>
       <c r="B8" t="n">
-        <v>15.23</v>
+        <v>50.73</v>
       </c>
       <c r="C8" t="n">
-        <v>2819</v>
+        <v>77.69</v>
       </c>
       <c r="D8" t="n">
-        <v>4210</v>
+        <v>126</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F8" t="n">
-        <v>4756</v>
+        <v>908</v>
       </c>
       <c r="G8" t="n">
-        <v>54</v>
+        <v>633</v>
       </c>
       <c r="H8" t="n">
-        <v>11432.52</v>
+        <v>25864.12</v>
       </c>
       <c r="I8" t="n">
-        <v>37850.46</v>
+        <v>429084.24</v>
       </c>
       <c r="J8" t="n">
-        <v>10.62</v>
+        <v>4.24</v>
       </c>
       <c r="K8" t="n">
-        <v>29577</v>
+        <v>6008</v>
       </c>
       <c r="L8" t="n">
-        <v>29577</v>
+        <v>6008</v>
       </c>
       <c r="M8" t="n">
-        <v>29577</v>
+        <v>6008</v>
       </c>
       <c r="N8" t="n">
-        <v>29307.43</v>
+        <v>34906.96</v>
       </c>
       <c r="O8" t="n">
-        <v>266168</v>
+        <v>241229</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1864</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1636,25 +1613,25 @@
       <c r="X8" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2025-01-03 06:12:26</t>
-        </is>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-01-15 19:53:41</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="n">
-        <v>22</v>
+        <v>-21.61</v>
       </c>
       <c r="AD8" t="n">
-        <v>61.33</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>1</v>
@@ -1666,114 +1643,111 @@
         <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19.50682518714223</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>9.077549174768249</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.1</v>
+        <v>33950.88</v>
       </c>
       <c r="AM8" t="n">
-        <v>4971.270000000001</v>
+        <v>170190</v>
       </c>
       <c r="AN8" t="n">
-        <v>14971.14</v>
+        <v>14968.60000000001</v>
       </c>
       <c r="AO8" t="n">
-        <v>20293.38</v>
+        <v>121241.8</v>
       </c>
       <c r="AP8" t="n">
-        <v>9002.66</v>
+        <v>4</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="AU8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0002732</v>
+        <v>0.0002887</v>
       </c>
       <c r="B9" t="n">
-        <v>13.77</v>
+        <v>23.71</v>
       </c>
       <c r="C9" t="n">
-        <v>248</v>
+        <v>33.41</v>
       </c>
       <c r="D9" t="n">
-        <v>2538</v>
+        <v>2151</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F9" t="n">
-        <v>2665</v>
+        <v>2923</v>
       </c>
       <c r="G9" t="n">
-        <v>56</v>
+        <v>395</v>
       </c>
       <c r="H9" t="n">
-        <v>11669.69</v>
+        <v>26214.4</v>
       </c>
       <c r="I9" t="n">
-        <v>49425.8</v>
+        <v>157088.06</v>
       </c>
       <c r="J9" t="n">
-        <v>13.03</v>
+        <v>39.89</v>
       </c>
       <c r="K9" t="n">
-        <v>31735</v>
+        <v>221</v>
       </c>
       <c r="L9" t="n">
-        <v>31735</v>
+        <v>221</v>
       </c>
       <c r="M9" t="n">
-        <v>31735</v>
+        <v>221</v>
       </c>
       <c r="N9" t="n">
-        <v>28955.36</v>
+        <v>59756.27</v>
       </c>
       <c r="O9" t="n">
-        <v>273284</v>
+        <v>288706</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1568</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1784,25 +1758,25 @@
       <c r="X9" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2025-01-02 05:16:40</t>
-        </is>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-01-15 14:40:32</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="n">
-        <v>30</v>
+        <v>-24.49</v>
       </c>
       <c r="AD9" t="n">
-        <v>65.19</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>1</v>
@@ -1814,114 +1788,111 @@
         <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.1</v>
+        <v>20.5843293492696</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.1</v>
+        <v>12725.32</v>
       </c>
       <c r="AM9" t="n">
-        <v>10245.03</v>
+        <v>45874</v>
       </c>
       <c r="AN9" t="n">
-        <v>19495.93</v>
+        <v>17275.1</v>
       </c>
       <c r="AO9" t="n">
-        <v>25472.55999999998</v>
+        <v>14939.3</v>
       </c>
       <c r="AP9" t="n">
-        <v>14182.34</v>
+        <v>9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="AS9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0002987</v>
+        <v>0.001055</v>
       </c>
       <c r="B10" t="n">
-        <v>13.34</v>
+        <v>19.43</v>
       </c>
       <c r="C10" t="n">
-        <v>330</v>
+        <v>30.9</v>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>434</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="F10" t="n">
-        <v>192</v>
+        <v>1371</v>
       </c>
       <c r="G10" t="n">
-        <v>58</v>
+        <v>386</v>
       </c>
       <c r="H10" t="n">
-        <v>5982.17</v>
+        <v>43074.24</v>
       </c>
       <c r="I10" t="n">
-        <v>61157.24</v>
+        <v>111505.6</v>
       </c>
       <c r="J10" t="n">
-        <v>28.39</v>
+        <v>49.86</v>
       </c>
       <c r="K10" t="n">
-        <v>36179</v>
+        <v>4485</v>
       </c>
       <c r="L10" t="n">
-        <v>36179</v>
+        <v>4485</v>
       </c>
       <c r="M10" t="n">
-        <v>36179</v>
+        <v>4485</v>
       </c>
       <c r="N10" t="n">
-        <v>29791.99</v>
+        <v>14454.68</v>
       </c>
       <c r="O10" t="n">
-        <v>298762</v>
+        <v>105540</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T10" t="n">
-        <v>500</v>
+        <v>35</v>
       </c>
       <c r="U10" t="n">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1932,37 +1903,37 @@
       <c r="X10" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>2025-01-01 03:24:05</t>
-        </is>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-01-15 13:51:56</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>61</v>
       </c>
       <c r="AA10" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AC10" t="n">
-        <v>33</v>
+        <v>64.36</v>
       </c>
       <c r="AD10" t="n">
-        <v>-20.22</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -1971,90 +1942,87 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.1</v>
+        <v>35.11782786885245</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.1</v>
+        <v>30600.37</v>
       </c>
       <c r="AM10" t="n">
-        <v>19652.14999999999</v>
+        <v>46282.94</v>
       </c>
       <c r="AN10" t="n">
-        <v>23353.94999999999</v>
+        <v>19650.95000000001</v>
       </c>
       <c r="AO10" t="n">
-        <v>32771.77999999998</v>
+        <v>22089.23</v>
       </c>
       <c r="AP10" t="n">
-        <v>23226</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="AR10" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0003731</v>
+        <v>8.342000000000001e-06</v>
       </c>
       <c r="B11" t="n">
-        <v>11.35</v>
+        <v>17.18</v>
       </c>
       <c r="C11" t="n">
-        <v>131</v>
+        <v>45.89</v>
       </c>
       <c r="D11" t="n">
-        <v>633</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>1039</v>
+        <v>170</v>
       </c>
       <c r="G11" t="n">
-        <v>343</v>
+        <v>64</v>
       </c>
       <c r="H11" t="n">
-        <v>143597.56</v>
+        <v>10382.93</v>
       </c>
       <c r="I11" t="n">
-        <v>309397.23</v>
+        <v>88784.7</v>
       </c>
       <c r="J11" t="n">
-        <v>20.69</v>
+        <v>-13.7</v>
       </c>
       <c r="K11" t="n">
-        <v>45235</v>
+        <v>198</v>
       </c>
       <c r="L11" t="n">
-        <v>45235</v>
+        <v>198</v>
       </c>
       <c r="M11" t="n">
-        <v>45235</v>
+        <v>198</v>
       </c>
       <c r="N11" t="n">
-        <v>33766.02</v>
+        <v>19517.87</v>
       </c>
       <c r="O11" t="n">
-        <v>373119</v>
+        <v>83423</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -2063,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T11" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="U11" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2080,129 +2048,126 @@
       <c r="X11" t="n">
         <v>0</v>
       </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2024-12-31 05:56:43</t>
-        </is>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2025-01-15 01:37:03</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>72</v>
       </c>
       <c r="AA11" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>65.55</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>14.44642612155303</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>33414.95999999999</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>39858.42999999999</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>42706.03999999999</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>37712.42999999999</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>72</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT11" t="n">
         <v>15</v>
       </c>
-      <c r="AC11" t="n">
-        <v>31</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>-24.71</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>29934.92</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>38579.66999999998</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>35738.10999999995</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>30588.27</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>31</v>
-      </c>
       <c r="AU11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0003352</v>
+        <v>0.001048</v>
       </c>
       <c r="B12" t="n">
-        <v>11.66</v>
+        <v>23.62</v>
       </c>
       <c r="C12" t="n">
-        <v>908</v>
+        <v>39.81</v>
       </c>
       <c r="D12" t="n">
-        <v>3421</v>
+        <v>439</v>
       </c>
       <c r="E12" t="n">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F12" t="n">
-        <v>3835</v>
+        <v>1060</v>
       </c>
       <c r="G12" t="n">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="H12" t="n">
-        <v>134859.17</v>
+        <v>41999.94</v>
       </c>
       <c r="I12" t="n">
-        <v>274101.68</v>
+        <v>107433.37</v>
       </c>
       <c r="J12" t="n">
-        <v>32.43</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>40340</v>
+        <v>4489</v>
       </c>
       <c r="L12" t="n">
-        <v>40340</v>
+        <v>4489</v>
       </c>
       <c r="M12" t="n">
-        <v>40340</v>
+        <v>4489</v>
       </c>
       <c r="N12" t="n">
-        <v>32195.38</v>
+        <v>14362.11</v>
       </c>
       <c r="O12" t="n">
-        <v>335217</v>
+        <v>104817</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -2211,13 +2176,13 @@
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T12" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="U12" t="n">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2228,25 +2193,25 @@
       <c r="X12" t="n">
         <v>0</v>
       </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>2024-12-30 04:08:53</t>
-        </is>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2025-01-14 17:00:21</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>39</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="n">
-        <v>33</v>
+        <v>-22.13</v>
       </c>
       <c r="AD12" t="n">
-        <v>65.84</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>1</v>
@@ -2255,250 +2220,244 @@
         <v>1</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.1</v>
+        <v>-5.072463768115928</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>16423.11999999999</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>21711.07999999999</v>
+        <v>20837.83000000001</v>
       </c>
       <c r="AO12" t="n">
-        <v>15766.88000000001</v>
+        <v>24182.64999999999</v>
       </c>
       <c r="AP12" t="n">
-        <v>8904.579999999998</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="AR12" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="AU12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0001919</v>
+        <v>0.001017</v>
       </c>
       <c r="B13" t="n">
-        <v>12.11</v>
+        <v>20.34</v>
       </c>
       <c r="C13" t="n">
-        <v>1332</v>
+        <v>43.25</v>
       </c>
       <c r="D13" t="n">
-        <v>2929</v>
+        <v>242</v>
       </c>
       <c r="E13" t="n">
+        <v>123</v>
+      </c>
+      <c r="F13" t="n">
+        <v>423</v>
+      </c>
+      <c r="G13" t="n">
+        <v>225</v>
+      </c>
+      <c r="H13" t="n">
+        <v>33901.75</v>
+      </c>
+      <c r="I13" t="n">
+        <v>61626.41</v>
+      </c>
+      <c r="J13" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4530</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4530</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4530</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13754.06</v>
+      </c>
+      <c r="O13" t="n">
+        <v>101772</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>500</v>
+      </c>
+      <c r="T13" t="n">
+        <v>21</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2025-01-13 19:03:50</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>71.09</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19.14245548266165</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>12838.95000000001</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>25978.98999999999</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>13041.33000000001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15364.94</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AR13" t="n">
         <v>10</v>
       </c>
-      <c r="F13" t="n">
-        <v>3031</v>
-      </c>
-      <c r="G13" t="n">
-        <v>38</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1683.23</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14787.95</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="K13" t="n">
-        <v>23900</v>
-      </c>
-      <c r="L13" t="n">
-        <v>23900</v>
-      </c>
-      <c r="M13" t="n">
-        <v>23900</v>
-      </c>
-      <c r="N13" t="n">
-        <v>23402.94</v>
-      </c>
-      <c r="O13" t="n">
-        <v>191904</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>500</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1058</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2024-12-28 05:08:38</t>
-        </is>
-      </c>
-      <c r="AA13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>60.81</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1728.13</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6382.220000000003</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>12041.14</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2526.05</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>67</v>
-      </c>
       <c r="AS13" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="AT13" t="n">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.266e-05</v>
+        <v>0.0001895</v>
       </c>
       <c r="B14" t="n">
-        <v>8.609999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="C14" t="n">
-        <v>871</v>
+        <v>42.46</v>
       </c>
       <c r="D14" t="n">
-        <v>526</v>
+        <v>2194</v>
       </c>
       <c r="E14" t="n">
-        <v>160</v>
+        <v>377</v>
       </c>
       <c r="F14" t="n">
-        <v>751</v>
+        <v>2722</v>
       </c>
       <c r="G14" t="n">
-        <v>229</v>
+        <v>747</v>
       </c>
       <c r="H14" t="n">
-        <v>41229.31</v>
+        <v>222140.27</v>
       </c>
       <c r="I14" t="n">
-        <v>60297.51</v>
+        <v>527515.25</v>
       </c>
       <c r="J14" t="n">
-        <v>12.54</v>
+        <v>29.04</v>
       </c>
       <c r="K14" t="n">
-        <v>972</v>
+        <v>110</v>
       </c>
       <c r="L14" t="n">
-        <v>972</v>
+        <v>110</v>
       </c>
       <c r="M14" t="n">
-        <v>972</v>
+        <v>110</v>
       </c>
       <c r="N14" t="n">
-        <v>7082.25</v>
+        <v>49701.06</v>
       </c>
       <c r="O14" t="n">
-        <v>42665</v>
+        <v>189507</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -2507,13 +2466,13 @@
         <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="T14" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2524,144 +2483,141 @@
       <c r="X14" t="n">
         <v>0</v>
       </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2024-12-27 02:33:35</t>
-        </is>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2025-01-12 17:36:32</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
+        <v>48</v>
       </c>
       <c r="AA14" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-24.27</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>12.59655377302436</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>16221.78</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>23832.91</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>244057.89</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>240566.28</v>
+      </c>
+      <c r="AP14" t="n">
         <v>5</v>
       </c>
-      <c r="AC14" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>75.29000000000001</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>7752.990000000001</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>15058.43</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>7906.370000000004</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>5322.280000000001</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AR14" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="AS14" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0002083</v>
+        <v>0.0001635</v>
       </c>
       <c r="B15" t="n">
-        <v>13.43</v>
+        <v>14.47</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>26.94</v>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>669</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="F15" t="n">
-        <v>160</v>
+        <v>2578</v>
       </c>
       <c r="G15" t="n">
-        <v>55</v>
+        <v>614</v>
       </c>
       <c r="H15" t="n">
-        <v>3149.46</v>
+        <v>97083.57000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>20726.32</v>
+        <v>226611.41</v>
       </c>
       <c r="J15" t="n">
-        <v>17.86</v>
+        <v>49.35</v>
       </c>
       <c r="K15" t="n">
-        <v>24313</v>
+        <v>83.19</v>
       </c>
       <c r="L15" t="n">
-        <v>24313</v>
+        <v>83.19</v>
       </c>
       <c r="M15" t="n">
-        <v>24313</v>
+        <v>83.19</v>
       </c>
       <c r="N15" t="n">
-        <v>25292.89</v>
+        <v>45254.56</v>
       </c>
       <c r="O15" t="n">
-        <v>208389</v>
+        <v>163557</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T15" t="n">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="U15" t="n">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2672,25 +2628,25 @@
       <c r="X15" t="n">
         <v>0</v>
       </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>2024-12-26 05:45:34</t>
-        </is>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2025-01-12 12:07:36</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="AB15" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="n">
-        <v>36</v>
+        <v>96.02</v>
       </c>
       <c r="AD15" t="n">
-        <v>79.12</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>1</v>
@@ -2705,193 +2661,1202 @@
         <v>1</v>
       </c>
       <c r="AI15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.1</v>
+        <v>32.38866396761134</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.1</v>
+        <v>26069.23</v>
       </c>
       <c r="AM15" t="n">
-        <v>2930.919999999999</v>
+        <v>37565.73</v>
       </c>
       <c r="AN15" t="n">
-        <v>4725.86</v>
+        <v>10318.14000000001</v>
       </c>
       <c r="AO15" t="n">
-        <v>14429.19000000001</v>
+        <v>11925.4</v>
       </c>
       <c r="AP15" t="n">
-        <v>3836.13</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0001881</v>
+        <v>0.0001184</v>
       </c>
       <c r="B16" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>123.73</v>
+      </c>
+      <c r="D16" t="n">
+        <v>687</v>
+      </c>
+      <c r="E16" t="n">
+        <v>77</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2794</v>
+      </c>
+      <c r="G16" t="n">
+        <v>410</v>
+      </c>
+      <c r="H16" t="n">
+        <v>46796.73</v>
+      </c>
+      <c r="I16" t="n">
+        <v>233922.55</v>
+      </c>
+      <c r="J16" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="K16" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="L16" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="M16" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="N16" t="n">
+        <v>38838.08</v>
+      </c>
+      <c r="O16" t="n">
+        <v>118487</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>500</v>
+      </c>
+      <c r="T16" t="n">
+        <v>13</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2025-01-11 05:41:08</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-92.97</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>11.90926275992439</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>18377.13</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>26846.94</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>7866.53</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>10212.08</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.0001045</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="C17" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="D17" t="n">
+        <v>557</v>
+      </c>
+      <c r="E17" t="n">
+        <v>150</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2151</v>
+      </c>
+      <c r="G17" t="n">
+        <v>449</v>
+      </c>
+      <c r="H17" t="n">
+        <v>197468.64</v>
+      </c>
+      <c r="I17" t="n">
+        <v>817134.83</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="K17" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="L17" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="M17" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="N17" t="n">
+        <v>37488.58</v>
+      </c>
+      <c r="O17" t="n">
+        <v>104555</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>500</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2025-01-11 04:08:48</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-24.33</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>12.81442297311887</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>8707.92</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>15199.84</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>382588.95</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>383065.51</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.0001683</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="C18" t="n">
+        <v>88.12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>228</v>
+      </c>
+      <c r="E18" t="n">
+        <v>162</v>
+      </c>
+      <c r="F18" t="n">
+        <v>555</v>
+      </c>
+      <c r="G18" t="n">
+        <v>329</v>
+      </c>
+      <c r="H18" t="n">
+        <v>99674.78999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>205394.17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="K18" t="n">
+        <v>120</v>
+      </c>
+      <c r="L18" t="n">
+        <v>120</v>
+      </c>
+      <c r="M18" t="n">
+        <v>120</v>
+      </c>
+      <c r="N18" t="n">
+        <v>46093.22</v>
+      </c>
+      <c r="O18" t="n">
+        <v>168387</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>500</v>
+      </c>
+      <c r="T18" t="n">
+        <v>287</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2025-01-11 03:52:18</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-20.56</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.06915629322268495</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>17083.38</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>28331.88</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>16163.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>20075.09</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.0001257</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="D19" t="n">
+        <v>416</v>
+      </c>
+      <c r="E19" t="n">
+        <v>54</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2369</v>
+      </c>
+      <c r="G19" t="n">
+        <v>381</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30107.94</v>
+      </c>
+      <c r="I19" t="n">
+        <v>176634.82</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="K19" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="L19" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="M19" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39688.49</v>
+      </c>
+      <c r="O19" t="n">
+        <v>125759</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>500</v>
+      </c>
+      <c r="T19" t="n">
+        <v>320</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2025-01-11 01:42:33</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>73.59</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>11.43617021276595</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>28750.29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>39591.38</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>6413.229999999998</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9123.040000000001</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR19" t="n">
         <v>18</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4752</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.0001156</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>37.21</v>
+      </c>
+      <c r="D20" t="n">
+        <v>103</v>
+      </c>
+      <c r="E20" t="n">
+        <v>62</v>
+      </c>
+      <c r="F20" t="n">
+        <v>427</v>
+      </c>
+      <c r="G20" t="n">
+        <v>281</v>
+      </c>
+      <c r="H20" t="n">
+        <v>13794.92</v>
+      </c>
+      <c r="I20" t="n">
+        <v>61738.26</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>60.91</v>
+      </c>
+      <c r="L20" t="n">
+        <v>60.91</v>
+      </c>
+      <c r="M20" t="n">
+        <v>60.91</v>
+      </c>
+      <c r="N20" t="n">
+        <v>37831.68</v>
+      </c>
+      <c r="O20" t="n">
+        <v>115617</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>500</v>
+      </c>
+      <c r="T20" t="n">
+        <v>63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2025-01-10 18:24:19</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>62</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-22.56</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>15.93902312558332</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>14648.19</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>23230.74</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>12128.68</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>16717.84000000001</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.0002033</v>
+      </c>
+      <c r="B21" t="n">
+        <v>35.87</v>
+      </c>
+      <c r="C21" t="n">
+        <v>38.78</v>
+      </c>
+      <c r="D21" t="n">
+        <v>621</v>
+      </c>
+      <c r="E21" t="n">
+        <v>108</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3522</v>
+      </c>
+      <c r="G21" t="n">
+        <v>842</v>
+      </c>
+      <c r="H21" t="n">
+        <v>60454.85</v>
+      </c>
+      <c r="I21" t="n">
+        <v>374501.37</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="K21" t="n">
+        <v>213</v>
+      </c>
+      <c r="L21" t="n">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>213</v>
+      </c>
+      <c r="N21" t="n">
+        <v>51179.97</v>
+      </c>
+      <c r="O21" t="n">
+        <v>203337</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>500</v>
+      </c>
+      <c r="T21" t="n">
+        <v>347</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2025-01-12 02:01:59</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>74</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-26.36</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-7.898586055582636</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>14562</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>36817</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>13512.53</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>20822.69</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
         <v>8</v>
       </c>
-      <c r="F16" t="n">
-        <v>6332</v>
-      </c>
-      <c r="G16" t="n">
-        <v>41</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2237.21</v>
-      </c>
-      <c r="I16" t="n">
-        <v>17370.58</v>
-      </c>
-      <c r="J16" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="K16" t="n">
-        <v>23944</v>
-      </c>
-      <c r="L16" t="n">
-        <v>23944</v>
-      </c>
-      <c r="M16" t="n">
-        <v>23944</v>
-      </c>
-      <c r="N16" t="n">
-        <v>22854.37</v>
-      </c>
-      <c r="O16" t="n">
-        <v>188139</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8.113e-05</v>
+      </c>
+      <c r="B22" t="n">
+        <v>44.06</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1083.84</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>411</v>
+      </c>
+      <c r="G22" t="n">
+        <v>213</v>
+      </c>
+      <c r="H22" t="n">
+        <v>638.37</v>
+      </c>
+      <c r="I22" t="n">
+        <v>83636.94</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3969</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3969</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3969</v>
+      </c>
+      <c r="N22" t="n">
+        <v>18378.32</v>
+      </c>
+      <c r="O22" t="n">
+        <v>81134</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
         <v>500</v>
       </c>
-      <c r="U16" t="n">
-        <v>340</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2024-12-23 05:25:55</t>
-        </is>
-      </c>
-      <c r="AA16" t="n">
-        <v>64</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="T22" t="n">
+        <v>4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2025-01-12 02:59:19</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-26.22</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>-0.6490325740876766</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>29972.05999999999</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>36213.98</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>34653.03999999999</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>31575.29</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.0001676</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="C23" t="n">
+        <v>40.36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>566</v>
+      </c>
+      <c r="E23" t="n">
+        <v>160</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3235</v>
+      </c>
+      <c r="G23" t="n">
+        <v>781</v>
+      </c>
+      <c r="H23" t="n">
+        <v>73259.35000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>393366.39</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-8.56</v>
+      </c>
+      <c r="K23" t="n">
+        <v>115</v>
+      </c>
+      <c r="L23" t="n">
+        <v>115</v>
+      </c>
+      <c r="M23" t="n">
+        <v>115</v>
+      </c>
+      <c r="N23" t="n">
+        <v>46844.66</v>
+      </c>
+      <c r="O23" t="n">
+        <v>167688</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>500</v>
+      </c>
+      <c r="T23" t="n">
+        <v>287</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2025-01-10 15:03:49</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-20.41</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-17.84313725490195</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>27904</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>56979</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>6505.919999999998</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>10625.75</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
         <v>7</v>
       </c>
-      <c r="AC16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1717.839999999999</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>6654.180000000003</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12485.83000000001</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>5020.93</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>64</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>78</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>71</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV16" t="n">
+      <c r="AU23" t="n">
         <v>0</v>
       </c>
     </row>
